--- a/Upgrades/data.xlsx
+++ b/Upgrades/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexisalvarez\OneDrive - Grupo Vidanta\UPDATE\Work\01. 26Dic18 - Metas PowerBI\Enero2019\_Forecast\GoalsForecastsAndProbabilites\Upgrades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="6_{8CFF77B6-7282-4AF7-8DA8-DE8ED663BD7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{E0864C69-2575-46E8-A230-032D0915BE42}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="6_{8CFF77B6-7282-4AF7-8DA8-DE8ED663BD7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{FCD761F6-6759-4E21-A30E-971593904248}"/>
   <bookViews>
-    <workbookView xWindow="9348" yWindow="0" windowWidth="18816" windowHeight="6780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10692" yWindow="0" windowWidth="18816" windowHeight="6780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{18CD275E-53E7-4BC6-85A5-22A705AD3796}" name="Tabla1" displayName="Tabla1" ref="A1:D25" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{18CD275E-53E7-4BC6-85A5-22A705AD3796}" name="Tabla1" displayName="Tabla1" ref="A1:D26" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{B317D80A-9B8E-45CD-B838-9D1A8D16FFD1}" name="Fechaa" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{18A33946-2FF8-4E1D-B536-D4542E7DB1E3}" name="International"/>
@@ -445,7 +445,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB6EF03-AEC3-4DB5-8EF8-A226B5E5A057}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,11 +537,11 @@
         <v>2675407</v>
       </c>
       <c r="C6">
-        <v>1398551</v>
+        <v>1398551.39</v>
       </c>
       <c r="D6">
         <f>B6+C6/Hoja2!$A$2</f>
-        <v>2748732.8358630743</v>
+        <v>2748732.8563107206</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -552,11 +552,11 @@
         <v>1723718</v>
       </c>
       <c r="C7">
-        <v>1875625</v>
+        <v>1875624.74</v>
       </c>
       <c r="D7">
         <f>B7+C7/Hoja2!$A$2</f>
-        <v>1822056.7598240455</v>
+        <v>1822056.7461922814</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -597,11 +597,11 @@
         <v>1467414</v>
       </c>
       <c r="C10">
-        <v>510957</v>
+        <v>510956.57</v>
       </c>
       <c r="D10">
         <f>B10+C10/Hoja2!$A$2</f>
-        <v>1494203.4049734967</v>
+        <v>1494203.3824286561</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -627,11 +627,11 @@
         <v>2058611</v>
       </c>
       <c r="C12">
-        <v>1420750</v>
+        <v>1420750.27</v>
       </c>
       <c r="D12">
         <f>B12+C12/Hoja2!$A$2</f>
-        <v>2133100.7263685507</v>
+        <v>2133100.7405246133</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -672,11 +672,11 @@
         <v>2890454</v>
       </c>
       <c r="C15">
-        <v>1405759</v>
+        <v>1405759.49</v>
       </c>
       <c r="D15">
         <f>B15+C15/Hoja2!$A$2</f>
-        <v>2964157.7503080256</v>
+        <v>2964157.7759986576</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -684,14 +684,14 @@
         <v>43511</v>
       </c>
       <c r="B16">
-        <v>2401266</v>
+        <v>2386745</v>
       </c>
       <c r="C16">
         <v>300640</v>
       </c>
       <c r="D16">
         <f>B16+C16/Hoja2!$A$2</f>
-        <v>2417028.5136973015</v>
+        <v>2402507.5136973015</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -732,11 +732,11 @@
         <v>2406941</v>
       </c>
       <c r="C19">
-        <v>1071712</v>
+        <v>1071711.83</v>
       </c>
       <c r="D19">
         <f>B19+C19/Hoja2!$A$2</f>
-        <v>2463130.7122124876</v>
+        <v>2463130.7032994111</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -747,11 +747,11 @@
         <v>3065098</v>
       </c>
       <c r="C20">
-        <v>1481910</v>
+        <v>1571910</v>
       </c>
       <c r="D20">
         <f>B20+C20/Hoja2!$A$2</f>
-        <v>3142794.3367255456</v>
+        <v>3147513.0243012412</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -789,14 +789,14 @@
         <v>43518</v>
       </c>
       <c r="B23">
-        <v>2353684</v>
+        <v>2370270</v>
       </c>
       <c r="C23">
-        <v>1542161</v>
+        <v>1542160.71</v>
       </c>
       <c r="D23">
         <f>B23+C23/Hoja2!$A$2</f>
-        <v>2434539.288338026</v>
+        <v>2451125.2731333659</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -807,11 +807,11 @@
         <v>682067</v>
       </c>
       <c r="C24">
-        <v>1430855</v>
+        <v>1430854.6</v>
       </c>
       <c r="D24">
         <f>B24+C24/Hoja2!$A$2</f>
-        <v>757086.53012357722</v>
+        <v>757086.50915163243</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -822,11 +822,26 @@
         <v>1274666</v>
       </c>
       <c r="C25">
-        <v>1149873</v>
+        <v>1149873.3899999999</v>
       </c>
       <c r="D25">
         <f>B25+C25/Hoja2!$A$2</f>
-        <v>1334953.6826525317</v>
+        <v>1334953.7031001777</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>43521</v>
+      </c>
+      <c r="B26">
+        <v>2030848</v>
+      </c>
+      <c r="C26">
+        <v>1286885</v>
+      </c>
+      <c r="D26">
+        <f>B26+C26/Hoja2!$A$2</f>
+        <v>2098319.2028983226</v>
       </c>
     </row>
   </sheetData>
@@ -843,7 +858,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Upgrades/data.xlsx
+++ b/Upgrades/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexisalvarez\OneDrive - Grupo Vidanta\UPDATE\Work\01. 26Dic18 - Metas PowerBI\Enero2019\_Forecast\GoalsForecastsAndProbabilites\Upgrades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="6_{8CFF77B6-7282-4AF7-8DA8-DE8ED663BD7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{FCD761F6-6759-4E21-A30E-971593904248}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="6_{F1E16306-EF52-400C-A5BD-972CFC1F66FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{51871D71-3D78-4F49-AC0A-8C5A8BDA8B22}"/>
   <bookViews>
-    <workbookView xWindow="10692" yWindow="0" windowWidth="18816" windowHeight="6780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21220" yWindow="0" windowWidth="18820" windowHeight="6780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{18CD275E-53E7-4BC6-85A5-22A705AD3796}" name="Tabla1" displayName="Tabla1" ref="A1:D26" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{18CD275E-53E7-4BC6-85A5-22A705AD3796}" name="Tabla1" displayName="Tabla1" ref="A1:D14" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{B317D80A-9B8E-45CD-B838-9D1A8D16FFD1}" name="Fechaa" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{18A33946-2FF8-4E1D-B536-D4542E7DB1E3}" name="International"/>
@@ -445,17 +445,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB6EF03-AEC3-4DB5-8EF8-A226B5E5A057}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -469,379 +471,199 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B2">
-        <v>1482961</v>
+        <v>1595822</v>
       </c>
       <c r="C2">
-        <v>329850</v>
+        <v>909710</v>
       </c>
       <c r="D2">
         <f>B2+C2/Hoja2!$A$2</f>
-        <v>1500254.9899649245</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1643517.9697165117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>43498</v>
+        <v>43526</v>
       </c>
       <c r="B3">
-        <v>919224</v>
+        <v>864122</v>
       </c>
       <c r="C3">
-        <v>2700673</v>
+        <v>206706</v>
       </c>
       <c r="D3">
         <f>B3+C3/Hoja2!$A$2</f>
-        <v>1060819.9125679622</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>874959.56704468594</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>43499</v>
+        <v>43527</v>
       </c>
       <c r="B4">
-        <v>80981</v>
+        <v>18560</v>
       </c>
       <c r="C4">
-        <v>2071350</v>
+        <v>1219409</v>
       </c>
       <c r="D4">
         <f>B4+C4/Hoja2!$A$2</f>
-        <v>189581.59455463453</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>82493.445533237915</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>43500</v>
+        <v>43528</v>
       </c>
       <c r="B5">
-        <v>2296533</v>
+        <v>2726635</v>
       </c>
       <c r="C5">
-        <v>126110</v>
+        <v>1449304</v>
       </c>
       <c r="D5">
         <f>B5+C5/Hoja2!$A$2</f>
-        <v>2303144.9298907886</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2802621.8086467329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>43501</v>
+        <v>43529</v>
       </c>
       <c r="B6">
-        <v>2675407</v>
+        <v>1798122</v>
       </c>
       <c r="C6">
-        <v>1398551.39</v>
+        <v>1211172</v>
       </c>
       <c r="D6">
         <f>B6+C6/Hoja2!$A$2</f>
-        <v>2748732.8563107206</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1861623.5807603379</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>43502</v>
+        <v>43530</v>
       </c>
       <c r="B7">
-        <v>1723718</v>
+        <v>1757417</v>
       </c>
       <c r="C7">
-        <v>1875624.74</v>
+        <v>2013322</v>
       </c>
       <c r="D7">
         <f>B7+C7/Hoja2!$A$2</f>
-        <v>1822056.7461922814</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1862975.1945252737</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>43503</v>
+        <v>43531</v>
       </c>
       <c r="B8">
-        <v>3096378</v>
+        <v>2385431</v>
       </c>
       <c r="C8">
-        <v>1409785</v>
+        <v>812778</v>
       </c>
       <c r="D8">
         <f>B8+C8/Hoja2!$A$2</f>
-        <v>3170292.832932245</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2428044.8383377637</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>43504</v>
+        <v>43532</v>
       </c>
       <c r="B9">
-        <v>2347005</v>
+        <v>1435093</v>
       </c>
       <c r="C9">
-        <v>186200</v>
+        <v>2769921</v>
       </c>
       <c r="D9">
         <f>B9+C9/Hoja2!$A$2</f>
-        <v>2356767.4402954946</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1580319.5756484263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>43505</v>
+        <v>43533</v>
       </c>
       <c r="B10">
-        <v>1467414</v>
+        <v>689081</v>
       </c>
       <c r="C10">
-        <v>510956.57</v>
+        <v>877646</v>
       </c>
       <c r="D10">
         <f>B10+C10/Hoja2!$A$2</f>
-        <v>1494203.3824286561</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>735095.85862287728</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>43506</v>
+        <v>43534</v>
       </c>
       <c r="B11">
-        <v>158098</v>
+        <v>50807</v>
       </c>
       <c r="C11">
-        <v>520510</v>
+        <v>379111</v>
       </c>
       <c r="D11">
         <f>B11+C11/Hoja2!$A$2</f>
-        <v>185388.26744472582</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>70683.737394550437</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>43507</v>
+        <v>43535</v>
       </c>
       <c r="B12">
-        <v>2058611</v>
+        <v>2087422</v>
       </c>
       <c r="C12">
-        <v>1420750.27</v>
+        <v>1195715</v>
       </c>
       <c r="D12">
         <f>B12+C12/Hoja2!$A$2</f>
-        <v>2133100.7405246133</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2150113.1723841429</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>43508</v>
+        <v>43536</v>
       </c>
       <c r="B13">
-        <v>1959427</v>
+        <v>3114313</v>
       </c>
       <c r="C13">
-        <v>5488284</v>
+        <v>1756331</v>
       </c>
       <c r="D13">
         <f>B13+C13/Hoja2!$A$2</f>
-        <v>2247176.9724743227</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3206397.1918723229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>43509</v>
+        <v>43537</v>
       </c>
       <c r="B14">
-        <v>2473000</v>
+        <v>2031728</v>
       </c>
       <c r="C14">
-        <v>535900</v>
+        <v>322137</v>
       </c>
       <c r="D14">
         <f>B14+C14/Hoja2!$A$2</f>
-        <v>2501097.1630201698</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>43510</v>
-      </c>
-      <c r="B15">
-        <v>2890454</v>
-      </c>
-      <c r="C15">
-        <v>1405759.49</v>
-      </c>
-      <c r="D15">
-        <f>B15+C15/Hoja2!$A$2</f>
-        <v>2964157.7759986576</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>43511</v>
-      </c>
-      <c r="B16">
-        <v>2386745</v>
-      </c>
-      <c r="C16">
-        <v>300640</v>
-      </c>
-      <c r="D16">
-        <f>B16+C16/Hoja2!$A$2</f>
-        <v>2402507.5136973015</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>43512</v>
-      </c>
-      <c r="B17">
-        <v>1626002</v>
-      </c>
-      <c r="C17">
-        <v>800054</v>
-      </c>
-      <c r="D17">
-        <f>B17+C17/Hoja2!$A$2</f>
-        <v>1667948.7207742841</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>43513</v>
-      </c>
-      <c r="B18">
-        <v>52166</v>
-      </c>
-      <c r="C18">
-        <v>144262</v>
-      </c>
-      <c r="D18">
-        <f>B18+C18/Hoja2!$A$2</f>
-        <v>59729.636744944451</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>43514</v>
-      </c>
-      <c r="B19">
-        <v>2406941</v>
-      </c>
-      <c r="C19">
-        <v>1071711.83</v>
-      </c>
-      <c r="D19">
-        <f>B19+C19/Hoja2!$A$2</f>
-        <v>2463130.7032994111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>43515</v>
-      </c>
-      <c r="B20">
-        <v>3065098</v>
-      </c>
-      <c r="C20">
-        <v>1571910</v>
-      </c>
-      <c r="D20">
-        <f>B20+C20/Hoja2!$A$2</f>
-        <v>3147513.0243012412</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>43516</v>
-      </c>
-      <c r="B21">
-        <v>2714514</v>
-      </c>
-      <c r="C21">
-        <v>1580301</v>
-      </c>
-      <c r="D21">
-        <f>B21+C21/Hoja2!$A$2</f>
-        <v>2797368.9632728817</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>43517</v>
-      </c>
-      <c r="B22">
-        <v>1476251</v>
-      </c>
-      <c r="C22">
-        <v>2650229</v>
-      </c>
-      <c r="D22">
-        <f>B22+C22/Hoja2!$A$2</f>
-        <v>1615202.1406116467</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>43518</v>
-      </c>
-      <c r="B23">
-        <v>2370270</v>
-      </c>
-      <c r="C23">
-        <v>1542160.71</v>
-      </c>
-      <c r="D23">
-        <f>B23+C23/Hoja2!$A$2</f>
-        <v>2451125.2731333659</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>43519</v>
-      </c>
-      <c r="B24">
-        <v>682067</v>
-      </c>
-      <c r="C24">
-        <v>1430854.6</v>
-      </c>
-      <c r="D24">
-        <f>B24+C24/Hoja2!$A$2</f>
-        <v>757086.50915163243</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>43520</v>
-      </c>
-      <c r="B25">
-        <v>1274666</v>
-      </c>
-      <c r="C25">
-        <v>1149873.3899999999</v>
-      </c>
-      <c r="D25">
-        <f>B25+C25/Hoja2!$A$2</f>
-        <v>1334953.7031001777</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>43521</v>
-      </c>
-      <c r="B26">
-        <v>2030848</v>
-      </c>
-      <c r="C26">
-        <v>1286885</v>
-      </c>
-      <c r="D26">
-        <f>B26+C26/Hoja2!$A$2</f>
-        <v>2098319.2028983226</v>
+        <v>2048617.5984396874</v>
       </c>
     </row>
   </sheetData>
@@ -861,14 +683,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>[1]Hoja1!$Q$37</f>
         <v>19.0731</v>

--- a/Upgrades/data.xlsx
+++ b/Upgrades/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexisalvarez\OneDrive - Grupo Vidanta\UPDATE\Work\01. 26Dic18 - Metas PowerBI\Enero2019\_Forecast\GoalsForecastsAndProbabilites\Upgrades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="6_{F1E16306-EF52-400C-A5BD-972CFC1F66FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{51871D71-3D78-4F49-AC0A-8C5A8BDA8B22}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="6_{F1E16306-EF52-400C-A5BD-972CFC1F66FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{97E8BD4F-F813-4207-9170-168BEA9DAD4B}"/>
   <bookViews>
     <workbookView xWindow="21220" yWindow="0" windowWidth="18820" windowHeight="6780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{18CD275E-53E7-4BC6-85A5-22A705AD3796}" name="Tabla1" displayName="Tabla1" ref="A1:D14" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{18CD275E-53E7-4BC6-85A5-22A705AD3796}" name="Tabla1" displayName="Tabla1" ref="A1:D20" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{B317D80A-9B8E-45CD-B838-9D1A8D16FFD1}" name="Fechaa" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{18A33946-2FF8-4E1D-B536-D4542E7DB1E3}" name="International"/>
@@ -445,11 +445,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB6EF03-AEC3-4DB5-8EF8-A226B5E5A057}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -491,14 +489,14 @@
         <v>43526</v>
       </c>
       <c r="B3">
-        <v>864122</v>
+        <v>847715</v>
       </c>
       <c r="C3">
         <v>206706</v>
       </c>
       <c r="D3">
         <f>B3+C3/Hoja2!$A$2</f>
-        <v>874959.56704468594</v>
+        <v>858552.56704468594</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -509,11 +507,11 @@
         <v>18560</v>
       </c>
       <c r="C4">
-        <v>1219409</v>
+        <v>1329409</v>
       </c>
       <c r="D4">
         <f>B4+C4/Hoja2!$A$2</f>
-        <v>82493.445533237915</v>
+        <v>88260.730347976991</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -521,14 +519,14 @@
         <v>43528</v>
       </c>
       <c r="B5">
-        <v>2726635</v>
+        <v>2702635</v>
       </c>
       <c r="C5">
-        <v>1449304</v>
+        <v>1314178</v>
       </c>
       <c r="D5">
         <f>B5+C5/Hoja2!$A$2</f>
-        <v>2802621.8086467329</v>
+        <v>2771537.1711205835</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -539,11 +537,11 @@
         <v>1798122</v>
       </c>
       <c r="C6">
-        <v>1211172</v>
+        <v>539911</v>
       </c>
       <c r="D6">
         <f>B6+C6/Hoja2!$A$2</f>
-        <v>1861623.5807603379</v>
+        <v>1826429.45919646</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -551,14 +549,14 @@
         <v>43530</v>
       </c>
       <c r="B7">
-        <v>1757417</v>
+        <v>1746137</v>
       </c>
       <c r="C7">
         <v>2013322</v>
       </c>
       <c r="D7">
         <f>B7+C7/Hoja2!$A$2</f>
-        <v>1862975.1945252737</v>
+        <v>1851695.1945252737</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -566,14 +564,14 @@
         <v>43531</v>
       </c>
       <c r="B8">
-        <v>2385431</v>
+        <v>2319236</v>
       </c>
       <c r="C8">
-        <v>812778</v>
+        <v>712032</v>
       </c>
       <c r="D8">
         <f>B8+C8/Hoja2!$A$2</f>
-        <v>2428044.8383377637</v>
+        <v>2356567.73946553</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -584,11 +582,11 @@
         <v>1435093</v>
       </c>
       <c r="C9">
-        <v>2769921</v>
+        <v>2829521</v>
       </c>
       <c r="D9">
         <f>B9+C9/Hoja2!$A$2</f>
-        <v>1580319.5756484263</v>
+        <v>1583444.3954207757</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -596,14 +594,14 @@
         <v>43533</v>
       </c>
       <c r="B10">
-        <v>689081</v>
+        <v>688581</v>
       </c>
       <c r="C10">
-        <v>877646</v>
+        <v>937646</v>
       </c>
       <c r="D10">
         <f>B10+C10/Hoja2!$A$2</f>
-        <v>735095.85862287728</v>
+        <v>737741.65034000762</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -626,14 +624,14 @@
         <v>43535</v>
       </c>
       <c r="B12">
-        <v>2087422</v>
+        <v>2041851</v>
       </c>
       <c r="C12">
-        <v>1195715</v>
+        <v>1255315</v>
       </c>
       <c r="D12">
         <f>B12+C12/Hoja2!$A$2</f>
-        <v>2150113.1723841429</v>
+        <v>2107666.9921564925</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -641,14 +639,14 @@
         <v>43536</v>
       </c>
       <c r="B13">
-        <v>3114313</v>
+        <v>2961973</v>
       </c>
       <c r="C13">
         <v>1756331</v>
       </c>
       <c r="D13">
         <f>B13+C13/Hoja2!$A$2</f>
-        <v>3206397.1918723229</v>
+        <v>3054057.1918723229</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -656,14 +654,104 @@
         <v>43537</v>
       </c>
       <c r="B14">
-        <v>2031728</v>
+        <v>1965887</v>
       </c>
       <c r="C14">
-        <v>322137</v>
+        <v>617421</v>
       </c>
       <c r="D14">
         <f>B14+C14/Hoja2!$A$2</f>
-        <v>2048617.5984396874</v>
+        <v>1998258.2977963728</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>43538</v>
+      </c>
+      <c r="B15">
+        <v>2007874</v>
+      </c>
+      <c r="C15">
+        <v>1754423</v>
+      </c>
+      <c r="D15">
+        <f>B15+C15/Hoja2!$A$2</f>
+        <v>2099858.1556957182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>43539</v>
+      </c>
+      <c r="B16">
+        <v>1712458</v>
+      </c>
+      <c r="C16">
+        <v>704725</v>
+      </c>
+      <c r="D16">
+        <f>B16+C16/Hoja2!$A$2</f>
+        <v>1749406.6344642455</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>43540</v>
+      </c>
+      <c r="B17">
+        <v>601405</v>
+      </c>
+      <c r="C17">
+        <v>2502100</v>
+      </c>
+      <c r="D17">
+        <f>B17+C17/Hoja2!$A$2</f>
+        <v>732589.75759053323</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>43541</v>
+      </c>
+      <c r="B18">
+        <v>96503</v>
+      </c>
+      <c r="C18">
+        <v>2240032</v>
+      </c>
+      <c r="D18">
+        <f>B18+C18/Hoja2!$A$2</f>
+        <v>213947.56852845108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>43542</v>
+      </c>
+      <c r="B19">
+        <v>2555699</v>
+      </c>
+      <c r="C19">
+        <v>1355297</v>
+      </c>
+      <c r="D19">
+        <f>B19+C19/Hoja2!$A$2</f>
+        <v>2626757.0346141947</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>43543</v>
+      </c>
+      <c r="B20">
+        <v>2025443</v>
+      </c>
+      <c r="C20">
+        <v>2058823</v>
+      </c>
+      <c r="D20">
+        <f>B20+C20/Hoja2!$A$2</f>
+        <v>2133386.8056739597</v>
       </c>
     </row>
   </sheetData>

--- a/Upgrades/data.xlsx
+++ b/Upgrades/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexisalvarez\OneDrive - Grupo Vidanta\UPDATE\Work\01. 26Dic18 - Metas PowerBI\Enero2019\_Forecast\GoalsForecastsAndProbabilites\Upgrades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="6_{F1E16306-EF52-400C-A5BD-972CFC1F66FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{97E8BD4F-F813-4207-9170-168BEA9DAD4B}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="6_{F1E16306-EF52-400C-A5BD-972CFC1F66FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{F47C0C82-269B-414D-B8DB-1E62B97CA66F}"/>
   <bookViews>
     <workbookView xWindow="21220" yWindow="0" windowWidth="18820" windowHeight="6780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{18CD275E-53E7-4BC6-85A5-22A705AD3796}" name="Tabla1" displayName="Tabla1" ref="A1:D20" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{18CD275E-53E7-4BC6-85A5-22A705AD3796}" name="Tabla1" displayName="Tabla1" ref="A1:D21" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{B317D80A-9B8E-45CD-B838-9D1A8D16FFD1}" name="Fechaa" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{18A33946-2FF8-4E1D-B536-D4542E7DB1E3}" name="International"/>
@@ -445,7 +445,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB6EF03-AEC3-4DB5-8EF8-A226B5E5A057}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,14 +564,14 @@
         <v>43531</v>
       </c>
       <c r="B8">
-        <v>2319236</v>
+        <v>2298566</v>
       </c>
       <c r="C8">
         <v>712032</v>
       </c>
       <c r="D8">
         <f>B8+C8/Hoja2!$A$2</f>
-        <v>2356567.73946553</v>
+        <v>2335897.73946553</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -624,14 +624,14 @@
         <v>43535</v>
       </c>
       <c r="B12">
-        <v>2041851</v>
+        <v>2040684</v>
       </c>
       <c r="C12">
         <v>1255315</v>
       </c>
       <c r="D12">
         <f>B12+C12/Hoja2!$A$2</f>
-        <v>2107666.9921564925</v>
+        <v>2106499.9921564925</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -669,14 +669,14 @@
         <v>43538</v>
       </c>
       <c r="B15">
-        <v>2007874</v>
+        <v>1974824</v>
       </c>
       <c r="C15">
         <v>1754423</v>
       </c>
       <c r="D15">
         <f>B15+C15/Hoja2!$A$2</f>
-        <v>2099858.1556957182</v>
+        <v>2066808.155695718</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -684,14 +684,14 @@
         <v>43539</v>
       </c>
       <c r="B16">
-        <v>1712458</v>
+        <v>1674458</v>
       </c>
       <c r="C16">
         <v>704725</v>
       </c>
       <c r="D16">
         <f>B16+C16/Hoja2!$A$2</f>
-        <v>1749406.6344642455</v>
+        <v>1711406.6344642455</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -729,14 +729,14 @@
         <v>43542</v>
       </c>
       <c r="B19">
-        <v>2555699</v>
+        <v>2547799</v>
       </c>
       <c r="C19">
         <v>1355297</v>
       </c>
       <c r="D19">
         <f>B19+C19/Hoja2!$A$2</f>
-        <v>2626757.0346141947</v>
+        <v>2618857.0346141947</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -744,14 +744,29 @@
         <v>43543</v>
       </c>
       <c r="B20">
-        <v>2025443</v>
+        <v>2024343</v>
       </c>
       <c r="C20">
-        <v>2058823</v>
+        <v>1858823</v>
       </c>
       <c r="D20">
         <f>B20+C20/Hoja2!$A$2</f>
-        <v>2133386.8056739597</v>
+        <v>2121800.833283525</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>43544</v>
+      </c>
+      <c r="B21">
+        <v>2091997</v>
+      </c>
+      <c r="C21">
+        <v>1685390</v>
+      </c>
+      <c r="D21">
+        <f>B21+C21/Hoja2!$A$2</f>
+        <v>2180361.7650355739</v>
       </c>
     </row>
   </sheetData>
